--- a/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6164"/>
+  <dimension ref="A1:C6165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105154,6 +105154,23 @@
         </is>
       </c>
     </row>
+    <row r="6165">
+      <c r="A6165" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B6165" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C6165" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6165"/>
+  <dimension ref="A1:C6168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105171,6 +105171,57 @@
         </is>
       </c>
     </row>
+    <row r="6166">
+      <c r="A6166" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B6166" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C6166" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="6167">
+      <c r="A6167" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B6167" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C6167" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="6168">
+      <c r="A6168" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B6168" t="inlineStr">
+        <is>
+          <t>0.394090909090909</t>
+        </is>
+      </c>
+      <c r="C6168" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6170"/>
+  <dimension ref="A1:C6171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105256,6 +105256,23 @@
         </is>
       </c>
     </row>
+    <row r="6171">
+      <c r="A6171" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B6171" t="inlineStr">
+        <is>
+          <t>0.972631578947368</t>
+        </is>
+      </c>
+      <c r="C6171" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6175"/>
+  <dimension ref="A1:C6176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105341,6 +105341,23 @@
         </is>
       </c>
     </row>
+    <row r="6176">
+      <c r="A6176" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B6176" t="inlineStr">
+        <is>
+          <t>1.06777032690696</t>
+        </is>
+      </c>
+      <c r="C6176" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN02.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6177"/>
+  <dimension ref="A1:C6178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105375,6 +105375,23 @@
         </is>
       </c>
     </row>
+    <row r="6178">
+      <c r="A6178" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B6178" t="inlineStr">
+        <is>
+          <t>0.851011778563016</t>
+        </is>
+      </c>
+      <c r="C6178" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
